--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011420-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011420-1.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5569,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6371,12 +6371,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7845,12 +7845,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8647,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8689,12 +8689,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8773,12 +8773,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9403,12 +9403,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9571,12 +9571,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9781,12 +9781,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9907,12 +9907,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9991,12 +9991,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10663,12 +10663,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11337,12 +11337,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11593,12 +11593,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11765,12 +11765,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11807,12 +11807,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12143,12 +12143,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12189,12 +12189,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12483,12 +12483,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12525,12 +12525,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12651,12 +12651,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12903,12 +12903,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13075,12 +13075,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13621,12 +13621,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14251,12 +14251,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15469,12 +15469,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15511,12 +15511,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
